--- a/data/trans_orig/P15A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06088BBD-F554-45A7-8763-EC6B20F26F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8113AC20-49B3-4333-946F-7FF7A87AEBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E571478-82F0-4260-8F1B-18DDA2C4D5B5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD685FE5-8908-4A6F-A341-43212673F989}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="624">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>49,37%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>47,5%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>50,63%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>52,5%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>51,46%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>39,37%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>43,74%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>51,55%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>56,26%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1465 +197,1516 @@
     <t>57,91%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>27,15%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
     <t>32,75%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>94,4%</t>
   </si>
   <si>
     <t>0%</t>
@@ -1667,214 +1718,199 @@
     <t>64,54%</t>
   </si>
   <si>
+    <t>27,67%</t>
+  </si>
+  <si>
     <t>37,17%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
   </si>
   <si>
     <t>43,67%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
   </si>
   <si>
     <t>62,83%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
   </si>
   <si>
     <t>56,33%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>31,08%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
   </si>
   <si>
     <t>68,92%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>64,28%</t>
   </si>
   <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>58,69%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>46,57%</t>
   </si>
   <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>31,34%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
   </si>
   <si>
     <t>41,31%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>53,43%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
+    <t>68,66%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>30,49%</t>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>69,51%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
   </si>
   <si>
     <t>56,97%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E81E3F-532E-4617-92F6-1B29DA71B9D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37807D4B-4AFB-4A27-94AC-8620F11D73A5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3501,7 +3537,7 @@
         <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3510,13 +3546,13 @@
         <v>26933</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -3525,13 +3561,13 @@
         <v>53322</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3582,13 @@
         <v>22342</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -3561,13 +3597,13 @@
         <v>20855</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -3576,13 +3612,13 @@
         <v>43197</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3686,13 @@
         <v>123077</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -3665,13 +3701,13 @@
         <v>93806</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>209</v>
@@ -3680,13 +3716,13 @@
         <v>216883</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3737,13 @@
         <v>119979</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>79</v>
@@ -3716,13 +3752,13 @@
         <v>81585</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>197</v>
@@ -3731,13 +3767,13 @@
         <v>201564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3829,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3817,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2747E96-A03C-4F10-8635-4021370EBC24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CA951-0B59-4C2F-B7A9-AD463CB3261E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3834,7 +3870,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,39 +3975,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +4020,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +4065,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4114,13 @@
         <v>10875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4093,13 +4129,13 @@
         <v>7349</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4108,13 +4144,13 @@
         <v>18225</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4165,13 @@
         <v>21153</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -4144,13 +4180,13 @@
         <v>22907</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -4159,13 +4195,13 @@
         <v>44059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4269,13 @@
         <v>15302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4248,13 +4284,13 @@
         <v>16928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4263,13 +4299,13 @@
         <v>32230</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4320,13 @@
         <v>37551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4299,13 +4335,13 @@
         <v>23983</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4314,13 +4350,13 @@
         <v>61534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4424,13 @@
         <v>26318</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4403,13 +4439,13 @@
         <v>14126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4418,13 +4454,13 @@
         <v>40444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4475,13 @@
         <v>43427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -4454,13 +4490,13 @@
         <v>30934</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -4469,13 +4505,13 @@
         <v>74361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4579,13 @@
         <v>7141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4558,13 +4594,13 @@
         <v>9252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4573,13 +4609,13 @@
         <v>16393</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4630,13 @@
         <v>6031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4609,13 +4645,13 @@
         <v>10546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4624,13 +4660,13 @@
         <v>16578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4734,13 @@
         <v>6842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -4713,13 +4749,13 @@
         <v>17187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4728,13 +4764,13 @@
         <v>24029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4785,13 @@
         <v>23509</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -4764,13 +4800,13 @@
         <v>18228</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -4779,13 +4815,13 @@
         <v>41737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4889,13 @@
         <v>22783</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4868,13 +4904,13 @@
         <v>19203</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4883,13 +4919,13 @@
         <v>41985</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4940,13 @@
         <v>42968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -4919,13 +4955,13 @@
         <v>40472</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -4934,13 +4970,13 @@
         <v>83441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5044,13 @@
         <v>9054</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5023,13 +5059,13 @@
         <v>14287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -5038,13 +5074,13 @@
         <v>23341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5095,13 @@
         <v>14959</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -5074,13 +5110,13 @@
         <v>12070</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -5089,13 +5125,13 @@
         <v>27029</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5199,13 @@
         <v>98315</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -5178,13 +5214,13 @@
         <v>98331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>184</v>
@@ -5193,13 +5229,13 @@
         <v>196646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5250,13 @@
         <v>189598</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>151</v>
@@ -5229,13 +5265,13 @@
         <v>159141</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>333</v>
@@ -5244,13 +5280,13 @@
         <v>348739</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5342,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EC13AD-417B-406A-A1EE-E4CC046A1A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B530C4B-981E-45A9-93EA-6DD1BFC56AEA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5347,7 +5383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5454,13 +5490,13 @@
         <v>6147</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5469,13 +5505,13 @@
         <v>9108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5484,13 +5520,13 @@
         <v>15254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5541,13 @@
         <v>13059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5520,13 +5556,13 @@
         <v>21080</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -5535,13 +5571,13 @@
         <v>34140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5645,13 @@
         <v>6221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5624,13 +5660,13 @@
         <v>4350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5639,13 +5675,13 @@
         <v>10572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5696,13 @@
         <v>13194</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5675,13 +5711,13 @@
         <v>11528</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -5690,13 +5726,13 @@
         <v>24721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5800,13 @@
         <v>12544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5779,13 +5815,13 @@
         <v>5851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5794,13 +5830,13 @@
         <v>18395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5851,13 @@
         <v>10687</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5830,13 +5866,13 @@
         <v>8030</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -5845,13 +5881,13 @@
         <v>18717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5955,13 @@
         <v>16873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5934,13 +5970,13 @@
         <v>19048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5949,13 +5985,13 @@
         <v>35921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +6006,13 @@
         <v>21519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5985,13 +6021,13 @@
         <v>17323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -6000,13 +6036,13 @@
         <v>38842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6110,13 @@
         <v>5611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6089,13 +6125,13 @@
         <v>3346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6104,13 +6140,13 @@
         <v>8957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6161,13 @@
         <v>4513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6140,13 +6176,13 @@
         <v>1187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6155,13 +6191,13 @@
         <v>5700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6265,13 @@
         <v>15427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6244,13 +6280,13 @@
         <v>25371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6259,13 +6295,13 @@
         <v>40798</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6316,13 @@
         <v>12797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -6295,13 +6331,13 @@
         <v>11088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6310,13 +6346,13 @@
         <v>23885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6420,13 @@
         <v>8180</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -6399,13 +6435,13 @@
         <v>5757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6414,13 +6450,13 @@
         <v>13937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6471,13 @@
         <v>18256</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -6450,13 +6486,13 @@
         <v>21650</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -6465,13 +6501,13 @@
         <v>39906</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6575,13 @@
         <v>18108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>227</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6554,13 +6590,13 @@
         <v>14679</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -6569,13 +6605,13 @@
         <v>32786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6626,13 @@
         <v>16498</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>218</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -6605,13 +6641,13 @@
         <v>12057</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -6620,13 +6656,13 @@
         <v>28556</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6730,13 @@
         <v>89111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -6709,13 +6745,13 @@
         <v>87509</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -6724,13 +6760,13 @@
         <v>176621</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>257</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6781,13 @@
         <v>110523</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>337</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>95</v>
@@ -6760,13 +6796,13 @@
         <v>103944</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>201</v>
@@ -6775,13 +6811,13 @@
         <v>214466</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>265</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,7 +6873,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF1E41B-88E2-434D-BE2D-8C1B3586D098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834782C7-FE2F-48E1-BDD7-114702428E0D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6878,7 +6914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6985,13 +7021,13 @@
         <v>7171</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -7000,13 +7036,13 @@
         <v>12017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7015,13 +7051,13 @@
         <v>19188</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +7072,13 @@
         <v>16276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -7051,13 +7087,13 @@
         <v>16044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -7066,13 +7102,13 @@
         <v>32320</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>385</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7176,13 @@
         <v>11727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -7155,13 +7191,13 @@
         <v>17835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -7170,13 +7206,13 @@
         <v>29563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>501</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7227,13 @@
         <v>12906</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -7206,13 +7242,13 @@
         <v>18611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -7221,13 +7257,13 @@
         <v>31516</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>510</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7331,13 @@
         <v>5943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -7310,13 +7346,13 @@
         <v>9917</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>498</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7325,13 +7361,13 @@
         <v>15860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7382,13 @@
         <v>15889</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -7361,13 +7397,13 @@
         <v>19085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>507</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -7376,13 +7412,13 @@
         <v>34974</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7486,13 @@
         <v>7687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7465,13 +7501,13 @@
         <v>7492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7480,13 +7516,13 @@
         <v>15180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7537,13 @@
         <v>17106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -7516,13 +7552,13 @@
         <v>12550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -7531,13 +7567,13 @@
         <v>29656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7641,13 @@
         <v>2431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7620,10 +7656,10 @@
         <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -7635,13 +7671,13 @@
         <v>3085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7692,13 @@
         <v>5615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7671,13 +7707,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7686,10 +7722,10 @@
         <v>5615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>132</v>
@@ -7760,13 +7796,13 @@
         <v>10008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>544</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -7775,13 +7811,13 @@
         <v>14429</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>545</v>
+        <v>474</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -7790,13 +7826,13 @@
         <v>24437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7847,13 @@
         <v>16919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -7826,13 +7862,13 @@
         <v>14599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -7841,13 +7877,13 @@
         <v>31517</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,13 +7951,13 @@
         <v>13799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -7930,13 +7966,13 @@
         <v>21553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>563</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -7945,13 +7981,13 @@
         <v>35351</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +8002,13 @@
         <v>30593</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -7981,13 +8017,13 @@
         <v>33034</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>572</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -7996,13 +8032,13 @@
         <v>63627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8106,13 @@
         <v>18131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -8085,13 +8121,13 @@
         <v>16048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>583</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -8100,13 +8136,13 @@
         <v>34178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8157,13 @@
         <v>12761</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -8136,13 +8172,13 @@
         <v>18409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>591</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -8151,13 +8187,13 @@
         <v>31171</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8261,13 @@
         <v>76897</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>241</v>
+        <v>608</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -8240,13 +8276,13 @@
         <v>99945</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="M28" s="7">
         <v>237</v>
@@ -8255,13 +8291,13 @@
         <v>176842</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8312,13 @@
         <v>128065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>233</v>
+        <v>616</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="H29" s="7">
         <v>201</v>
@@ -8291,13 +8327,13 @@
         <v>132332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="M29" s="7">
         <v>334</v>
@@ -8306,13 +8342,13 @@
         <v>260397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8368,7 +8404,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8113AC20-49B3-4333-946F-7FF7A87AEBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF40602-1619-41FB-AD96-780A6FA4F61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD685FE5-8908-4A6F-A341-43212673F989}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6799C104-B0F0-4398-B76E-1DA88C9BDDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="626">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
   </si>
@@ -77,1725 +77,1737 @@
     <t>49,37%</t>
   </si>
   <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 5,56%)</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>65,81%</t>
   </si>
   <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
   </si>
   <si>
     <t>39,48%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>60,52%</t>
   </si>
   <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
     <t>47,79%</t>
   </si>
   <si>
@@ -1865,9 +1877,6 @@
     <t>30,5%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
     <t>43,03%</t>
   </si>
   <si>
@@ -1887,9 +1896,6 @@
   </si>
   <si>
     <t>62,48%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
   </si>
   <si>
     <t>69,5%</t>
@@ -2322,7 +2328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37807D4B-4AFB-4A27-94AC-8620F11D73A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A042A3-743E-4D73-804F-A2FBE4EE27A9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2944,10 +2950,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2968,13 @@
         <v>21930</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -2977,13 +2983,13 @@
         <v>10719</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -2992,13 +2998,13 @@
         <v>32649</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,7 +3060,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3066,13 +3072,13 @@
         <v>7319</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3081,13 +3087,13 @@
         <v>7807</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3096,13 +3102,13 @@
         <v>15125</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3123,13 @@
         <v>12175</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3132,13 +3138,13 @@
         <v>4969</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3147,13 +3153,13 @@
         <v>17144</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,7 +3215,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3221,13 +3227,13 @@
         <v>8893</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3236,13 +3242,13 @@
         <v>10602</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -3251,13 +3257,13 @@
         <v>19495</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3278,13 @@
         <v>10796</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3287,13 +3293,13 @@
         <v>10713</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -3302,13 +3308,13 @@
         <v>21508</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3370,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3376,13 +3382,13 @@
         <v>27284</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3391,13 +3397,13 @@
         <v>18415</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3406,13 +3412,13 @@
         <v>45700</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3433,13 @@
         <v>17865</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3442,13 +3448,13 @@
         <v>5678</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -3457,13 +3463,13 @@
         <v>23542</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,7 +3525,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3531,13 +3537,13 @@
         <v>26389</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3546,13 +3552,13 @@
         <v>26933</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -3561,13 +3567,13 @@
         <v>53322</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3588,13 @@
         <v>22342</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -3597,13 +3603,13 @@
         <v>20855</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -3612,13 +3618,13 @@
         <v>43197</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3692,13 @@
         <v>123077</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -3701,13 +3707,13 @@
         <v>93806</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>209</v>
@@ -3716,13 +3722,13 @@
         <v>216883</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3743,13 @@
         <v>119979</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>79</v>
@@ -3752,13 +3758,13 @@
         <v>81585</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>197</v>
@@ -3767,13 +3773,13 @@
         <v>201564</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3835,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3853,7 +3859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CA951-0B59-4C2F-B7A9-AD463CB3261E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAAFC4D-4A94-436C-BD8E-38939E66CBD6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3870,7 +3876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,39 +3981,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,39 +4026,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,39 +4071,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4120,13 @@
         <v>10875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4129,13 +4135,13 @@
         <v>7349</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4144,13 +4150,13 @@
         <v>18225</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4171,13 @@
         <v>21153</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -4180,13 +4186,13 @@
         <v>22907</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -4195,13 +4201,13 @@
         <v>44059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4275,13 @@
         <v>15302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4284,13 +4290,13 @@
         <v>16928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4299,13 +4305,13 @@
         <v>32230</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4326,13 @@
         <v>37551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4335,13 +4341,13 @@
         <v>23983</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4350,13 +4356,13 @@
         <v>61534</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4430,13 @@
         <v>26318</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4439,13 +4445,13 @@
         <v>14126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4454,13 +4460,13 @@
         <v>40444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4481,13 @@
         <v>43427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -4490,13 +4496,13 @@
         <v>30934</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -4505,13 +4511,13 @@
         <v>74361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,7 +4573,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4579,13 +4585,13 @@
         <v>7141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4594,13 +4600,13 @@
         <v>9252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4609,13 +4615,13 @@
         <v>16393</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4636,13 @@
         <v>6031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4645,13 +4651,13 @@
         <v>10546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4660,13 +4666,13 @@
         <v>16578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4728,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4734,13 +4740,13 @@
         <v>6842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -4749,13 +4755,13 @@
         <v>17187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4764,13 +4770,13 @@
         <v>24029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4791,13 @@
         <v>23509</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -4800,13 +4806,13 @@
         <v>18228</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -4815,13 +4821,13 @@
         <v>41737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,7 +4883,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4889,13 +4895,13 @@
         <v>22783</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4904,13 +4910,13 @@
         <v>19203</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4919,13 +4925,13 @@
         <v>41985</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4946,13 @@
         <v>42968</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -4955,13 +4961,13 @@
         <v>40472</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -4970,13 +4976,13 @@
         <v>83441</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,7 +5038,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5044,13 +5050,13 @@
         <v>9054</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5059,13 +5065,13 @@
         <v>14287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -5074,13 +5080,13 @@
         <v>23341</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5101,13 @@
         <v>14959</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -5110,13 +5116,13 @@
         <v>12070</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -5125,13 +5131,13 @@
         <v>27029</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5205,13 @@
         <v>98315</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -5214,13 +5220,13 @@
         <v>98331</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>184</v>
@@ -5229,13 +5235,13 @@
         <v>196646</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5256,13 @@
         <v>189598</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>151</v>
@@ -5265,13 +5271,13 @@
         <v>159141</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>333</v>
@@ -5280,13 +5286,13 @@
         <v>348739</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,7 +5348,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5366,7 +5372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B530C4B-981E-45A9-93EA-6DD1BFC56AEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1C3A9-B23C-4133-BA98-DB3A56274577}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5976,7 +5982,7 @@
         <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5985,13 +5991,13 @@
         <v>35921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6012,13 @@
         <v>21519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6021,13 +6027,13 @@
         <v>17323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -6036,13 +6042,13 @@
         <v>38842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,7 +6104,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6110,13 +6116,13 @@
         <v>5611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6125,13 +6131,13 @@
         <v>3346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6140,13 +6146,13 @@
         <v>8957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6167,13 @@
         <v>4513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6176,13 +6182,13 @@
         <v>1187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6191,13 +6197,13 @@
         <v>5700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,7 +6259,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6265,13 +6271,13 @@
         <v>15427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6280,13 +6286,13 @@
         <v>25371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6295,13 +6301,13 @@
         <v>40798</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6322,13 @@
         <v>12797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -6331,13 +6337,13 @@
         <v>11088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6346,13 +6352,13 @@
         <v>23885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,7 +6414,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6420,13 +6426,13 @@
         <v>8180</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -6435,13 +6441,13 @@
         <v>5757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>60</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6450,13 +6456,13 @@
         <v>13937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6477,13 @@
         <v>18256</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -6486,13 +6492,13 @@
         <v>21650</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -6501,13 +6507,13 @@
         <v>39906</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,7 +6569,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6575,13 +6581,13 @@
         <v>18108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6590,10 +6596,10 @@
         <v>14679</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>233</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>447</v>
@@ -6641,13 +6647,13 @@
         <v>12057</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>455</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -6656,13 +6662,13 @@
         <v>28556</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6736,13 @@
         <v>89111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>460</v>
+        <v>122</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -6745,13 +6751,13 @@
         <v>87509</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -6760,13 +6766,13 @@
         <v>176621</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6787,13 @@
         <v>110523</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>95</v>
@@ -6796,13 +6802,13 @@
         <v>103944</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>201</v>
@@ -6811,13 +6817,13 @@
         <v>214466</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,7 +6879,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6897,7 +6903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834782C7-FE2F-48E1-BDD7-114702428E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE719D9-B91A-4A0A-BE70-C1C8C4AC57DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6914,7 +6920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7021,13 +7027,13 @@
         <v>7171</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -7036,13 +7042,13 @@
         <v>12017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7051,13 +7057,13 @@
         <v>19188</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,13 +7078,13 @@
         <v>16276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -7087,13 +7093,13 @@
         <v>16044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -7102,13 +7108,13 @@
         <v>32320</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7182,13 @@
         <v>11727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -7191,13 +7197,13 @@
         <v>17835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -7206,13 +7212,13 @@
         <v>29563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,13 +7233,13 @@
         <v>12906</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -7242,13 +7248,13 @@
         <v>18611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -7257,13 +7263,13 @@
         <v>31516</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7337,13 @@
         <v>5943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -7346,13 +7352,13 @@
         <v>9917</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7361,13 +7367,13 @@
         <v>15860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7388,13 @@
         <v>15889</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -7397,13 +7403,13 @@
         <v>19085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -7412,13 +7418,13 @@
         <v>34974</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,13 +7492,13 @@
         <v>7687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7501,13 +7507,13 @@
         <v>7492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7516,13 +7522,13 @@
         <v>15180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7543,13 @@
         <v>17106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -7552,13 +7558,13 @@
         <v>12550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -7567,13 +7573,13 @@
         <v>29656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,7 +7635,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7641,13 +7647,13 @@
         <v>2431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7656,10 +7662,10 @@
         <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -7671,13 +7677,13 @@
         <v>3085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>548</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,13 +7698,13 @@
         <v>5615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7707,13 +7713,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7722,13 +7728,13 @@
         <v>5615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,7 +7790,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7796,13 +7802,13 @@
         <v>10008</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -7811,7 +7817,7 @@
         <v>14429</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>474</v>
+        <v>561</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>562</v>
@@ -7850,10 +7856,10 @@
         <v>567</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>568</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -7862,13 +7868,13 @@
         <v>14599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>467</v>
+        <v>570</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -7877,13 +7883,13 @@
         <v>31517</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,7 +7945,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7951,13 +7957,13 @@
         <v>13799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -7966,13 +7972,13 @@
         <v>21553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>579</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -7981,13 +7987,13 @@
         <v>35351</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8008,13 @@
         <v>30593</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -8017,13 +8023,13 @@
         <v>33034</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>588</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -8032,13 +8038,13 @@
         <v>63627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,7 +8100,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8106,13 +8112,13 @@
         <v>18131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -8121,13 +8127,13 @@
         <v>16048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -8136,13 +8142,13 @@
         <v>34178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8163,13 @@
         <v>12761</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -8172,13 +8178,13 @@
         <v>18409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -8187,13 +8193,13 @@
         <v>31171</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8267,13 @@
         <v>76897</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>608</v>
+        <v>276</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -8276,13 +8282,13 @@
         <v>99945</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>237</v>
@@ -8291,13 +8297,13 @@
         <v>176842</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,13 +8318,13 @@
         <v>128065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>616</v>
+        <v>284</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>201</v>
@@ -8327,13 +8333,13 @@
         <v>132332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>334</v>
@@ -8342,13 +8348,13 @@
         <v>260397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,7 +8410,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF40602-1619-41FB-AD96-780A6FA4F61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3D73A7-DDC9-41A1-B36E-7C8037C02AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6799C104-B0F0-4398-B76E-1DA88C9BDDF2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9229EB6-95B3-45F1-AD0A-47E63F71B161}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="626">
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="509">
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1786 +137,1435 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
 </sst>
 </file>
@@ -2328,7 +1977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A042A3-743E-4D73-804F-A2FBE4EE27A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97105E73-14B0-4766-A08E-8703E52920B4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2464,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>7087</v>
+        <v>7088</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2497,10 +2146,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="D5" s="7">
-        <v>9531</v>
+        <v>263716</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2512,10 +2161,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="I5" s="7">
-        <v>7835</v>
+        <v>253750</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2527,10 +2176,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="N5" s="7">
-        <v>17366</v>
+        <v>517467</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2548,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7">
-        <v>18825</v>
+        <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2563,10 +2212,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="I6" s="7">
-        <v>14922</v>
+        <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2578,10 +2227,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>33</v>
+        <v>516</v>
       </c>
       <c r="N6" s="7">
-        <v>33747</v>
+        <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2652,10 +2301,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>458</v>
       </c>
       <c r="D8" s="7">
-        <v>12089</v>
+        <v>485223</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2667,10 +2316,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="I8" s="7">
-        <v>9535</v>
+        <v>494985</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2682,10 +2331,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>948</v>
       </c>
       <c r="N8" s="7">
-        <v>21625</v>
+        <v>980209</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2703,10 +2352,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>465</v>
       </c>
       <c r="D9" s="7">
-        <v>19941</v>
+        <v>493075</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2718,10 +2367,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>499</v>
       </c>
       <c r="I9" s="7">
-        <v>18499</v>
+        <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2733,10 +2382,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>35</v>
+        <v>964</v>
       </c>
       <c r="N9" s="7">
-        <v>38440</v>
+        <v>997024</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2807,10 +2456,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="D11" s="7">
-        <v>13251</v>
+        <v>300617</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2822,10 +2471,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="I11" s="7">
-        <v>11281</v>
+        <v>331207</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2837,10 +2486,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>625</v>
       </c>
       <c r="N11" s="7">
-        <v>24532</v>
+        <v>631824</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2858,10 +2507,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>31480</v>
+        <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2873,10 +2522,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>15486</v>
+        <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2888,10 +2537,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>44</v>
+        <v>645</v>
       </c>
       <c r="N12" s="7">
-        <v>46966</v>
+        <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2950,10 +2599,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,49 +2611,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7">
-        <v>21930</v>
+        <v>340853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="I14" s="7">
-        <v>10719</v>
+        <v>361663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>32</v>
+        <v>716</v>
       </c>
       <c r="N14" s="7">
-        <v>32649</v>
+        <v>702516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>39748</v>
+        <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3028,10 +2677,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="I15" s="7">
-        <v>20512</v>
+        <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3043,10 +2692,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>746</v>
       </c>
       <c r="N15" s="7">
-        <v>60260</v>
+        <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3060,7 +2709,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3072,28 +2721,28 @@
         <v>7319</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>7807</v>
+        <v>7806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3102,13 +2751,13 @@
         <v>15125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,49 +2766,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="D17" s="7">
-        <v>12175</v>
+        <v>195989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="I17" s="7">
-        <v>4969</v>
+        <v>199862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="N17" s="7">
-        <v>17144</v>
+        <v>395851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,10 +2817,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="D18" s="7">
-        <v>19494</v>
+        <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3183,10 +2832,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>12776</v>
+        <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3198,10 +2847,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>31</v>
+        <v>404</v>
       </c>
       <c r="N18" s="7">
-        <v>32269</v>
+        <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3215,7 +2864,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3227,13 +2876,13 @@
         <v>8893</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3242,13 +2891,13 @@
         <v>10602</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -3257,13 +2906,13 @@
         <v>19495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,49 +2921,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="D20" s="7">
-        <v>10796</v>
+        <v>261918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="I20" s="7">
-        <v>10713</v>
+        <v>267542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>21</v>
+        <v>518</v>
       </c>
       <c r="N20" s="7">
-        <v>21508</v>
+        <v>529460</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7">
-        <v>19689</v>
+        <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3338,10 +2987,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I21" s="7">
-        <v>21315</v>
+        <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3353,10 +3002,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>39</v>
+        <v>536</v>
       </c>
       <c r="N21" s="7">
-        <v>41003</v>
+        <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3370,7 +3019,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3382,13 +3031,13 @@
         <v>27284</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3397,13 +3046,13 @@
         <v>18415</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3412,13 +3061,13 @@
         <v>45700</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,43 +3076,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>572</v>
       </c>
       <c r="D23" s="7">
-        <v>17865</v>
+        <v>587743</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>603</v>
       </c>
       <c r="I23" s="7">
-        <v>5678</v>
+        <v>619804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>23</v>
+        <v>1175</v>
       </c>
       <c r="N23" s="7">
-        <v>23542</v>
+        <v>1207546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>141</v>
@@ -3478,10 +3127,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>43</v>
+        <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>45149</v>
+        <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3493,10 +3142,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>24</v>
+        <v>621</v>
       </c>
       <c r="I24" s="7">
-        <v>24093</v>
+        <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3508,10 +3157,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>67</v>
+        <v>1219</v>
       </c>
       <c r="N24" s="7">
-        <v>69242</v>
+        <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3537,13 +3186,13 @@
         <v>26389</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3552,13 +3201,13 @@
         <v>26933</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -3567,13 +3216,13 @@
         <v>53322</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,49 +3231,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>24</v>
+        <v>711</v>
       </c>
       <c r="D26" s="7">
-        <v>22342</v>
+        <v>717406</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>719</v>
+      </c>
+      <c r="I26" s="7">
+        <v>756578</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="7">
-        <v>20</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20855</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1430</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1473984</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M26" s="7">
-        <v>44</v>
-      </c>
-      <c r="N26" s="7">
-        <v>43197</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,10 +3282,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>49</v>
+        <v>736</v>
       </c>
       <c r="D27" s="7">
-        <v>48731</v>
+        <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -3648,10 +3297,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>46</v>
+        <v>745</v>
       </c>
       <c r="I27" s="7">
-        <v>47788</v>
+        <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -3663,10 +3312,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>95</v>
+        <v>1481</v>
       </c>
       <c r="N27" s="7">
-        <v>96519</v>
+        <v>1527306</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -3692,13 +3341,13 @@
         <v>123077</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -3707,13 +3356,13 @@
         <v>93806</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>209</v>
@@ -3722,13 +3371,13 @@
         <v>216883</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,49 +3386,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>118</v>
+        <v>3095</v>
       </c>
       <c r="D29" s="7">
-        <v>119979</v>
+        <v>3153467</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3207</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3285392</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="7">
+        <v>6302</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6438857</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="7">
-        <v>79</v>
-      </c>
-      <c r="I29" s="7">
-        <v>81585</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M29" s="7">
-        <v>197</v>
-      </c>
-      <c r="N29" s="7">
-        <v>201564</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,10 +3437,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>237</v>
+        <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>243056</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3803,10 +3452,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>169</v>
+        <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>175391</v>
+        <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3818,10 +3467,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>406</v>
+        <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>418447</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3835,7 +3484,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAAFC4D-4A94-436C-BD8E-38939E66CBD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F248A2-EAB5-4402-BBC1-30432F1A89AE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3876,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,39 +3630,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,39 +3675,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,39 +3720,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +3769,13 @@
         <v>10875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4135,13 +3784,13 @@
         <v>7349</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4150,13 +3799,13 @@
         <v>18225</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,49 +3814,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>462</v>
       </c>
       <c r="D8" s="7">
-        <v>21153</v>
+        <v>494652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>473</v>
       </c>
       <c r="I8" s="7">
-        <v>22907</v>
+        <v>516416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>935</v>
       </c>
       <c r="N8" s="7">
-        <v>44059</v>
+        <v>1011067</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,10 +3865,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>31</v>
+        <v>472</v>
       </c>
       <c r="D9" s="7">
-        <v>32028</v>
+        <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4231,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>28</v>
+        <v>480</v>
       </c>
       <c r="I9" s="7">
-        <v>30256</v>
+        <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4246,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>59</v>
+        <v>952</v>
       </c>
       <c r="N9" s="7">
-        <v>62284</v>
+        <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4275,13 +3924,13 @@
         <v>15302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4290,28 +3939,28 @@
         <v>16928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>32230</v>
+        <v>32229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,49 +3969,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="D11" s="7">
-        <v>37551</v>
+        <v>308744</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="7">
+        <v>302</v>
+      </c>
+      <c r="I11" s="7">
+        <v>324092</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="7">
+        <v>605</v>
+      </c>
+      <c r="N11" s="7">
+        <v>632837</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>23983</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="7">
-        <v>63</v>
-      </c>
-      <c r="N11" s="7">
-        <v>61534</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>55</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7">
-        <v>52853</v>
+        <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4386,10 +4035,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>40911</v>
+        <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4401,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>94</v>
+        <v>636</v>
       </c>
       <c r="N12" s="7">
-        <v>93764</v>
+        <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4430,13 +4079,13 @@
         <v>26318</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4445,13 +4094,13 @@
         <v>14126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4460,13 +4109,13 @@
         <v>40444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,49 +4124,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>601</v>
       </c>
       <c r="D14" s="7">
-        <v>43427</v>
+        <v>642402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>614</v>
       </c>
       <c r="I14" s="7">
-        <v>30934</v>
+        <v>662070</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
-        <v>68</v>
+        <v>1215</v>
       </c>
       <c r="N14" s="7">
-        <v>74361</v>
+        <v>1304472</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,10 +4175,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>64</v>
+        <v>626</v>
       </c>
       <c r="D15" s="7">
-        <v>69745</v>
+        <v>668720</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4541,10 +4190,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>627</v>
       </c>
       <c r="I15" s="7">
-        <v>45060</v>
+        <v>676196</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4556,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>106</v>
+        <v>1253</v>
       </c>
       <c r="N15" s="7">
-        <v>114805</v>
+        <v>1344916</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4573,7 +4222,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4585,13 +4234,13 @@
         <v>7141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4600,13 +4249,13 @@
         <v>9252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4615,13 +4264,13 @@
         <v>16393</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,49 +4279,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="D17" s="7">
-        <v>6031</v>
+        <v>205477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="I17" s="7">
-        <v>10546</v>
+        <v>210339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>392</v>
       </c>
       <c r="N17" s="7">
-        <v>16578</v>
+        <v>415816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="D18" s="7">
-        <v>13172</v>
+        <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4696,10 +4345,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>19798</v>
+        <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4711,10 +4360,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="N18" s="7">
-        <v>32971</v>
+        <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4728,7 +4377,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4740,13 +4389,13 @@
         <v>6842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -4755,13 +4404,13 @@
         <v>17187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4770,13 +4419,13 @@
         <v>24029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,49 +4434,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="D20" s="7">
-        <v>23509</v>
+        <v>267139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="I20" s="7">
-        <v>18228</v>
+        <v>262844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
-        <v>40</v>
+        <v>508</v>
       </c>
       <c r="N20" s="7">
-        <v>41737</v>
+        <v>529983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,10 +4485,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>30351</v>
+        <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4851,10 +4500,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="I21" s="7">
-        <v>35415</v>
+        <v>280031</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4866,10 +4515,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>62</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>65766</v>
+        <v>554012</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4883,7 +4532,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4895,13 +4544,13 @@
         <v>22783</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4910,13 +4559,13 @@
         <v>19203</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4925,13 +4574,13 @@
         <v>41985</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,49 +4589,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>41</v>
+        <v>596</v>
       </c>
       <c r="D23" s="7">
-        <v>42968</v>
+        <v>640005</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
-        <v>38</v>
+        <v>618</v>
       </c>
       <c r="I23" s="7">
-        <v>40472</v>
+        <v>674650</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
-        <v>79</v>
+        <v>1214</v>
       </c>
       <c r="N23" s="7">
-        <v>83441</v>
+        <v>1314656</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,10 +4640,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>63</v>
+        <v>618</v>
       </c>
       <c r="D24" s="7">
-        <v>65751</v>
+        <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5006,10 +4655,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>56</v>
+        <v>636</v>
       </c>
       <c r="I24" s="7">
-        <v>59675</v>
+        <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5021,10 +4670,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>119</v>
+        <v>1254</v>
       </c>
       <c r="N24" s="7">
-        <v>125426</v>
+        <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5050,13 +4699,13 @@
         <v>9054</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5065,13 +4714,13 @@
         <v>14287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -5080,13 +4729,13 @@
         <v>23341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,49 +4744,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>709</v>
       </c>
       <c r="D26" s="7">
-        <v>14959</v>
+        <v>770044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7">
-        <v>11</v>
+        <v>745</v>
       </c>
       <c r="I26" s="7">
-        <v>12070</v>
+        <v>809566</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="M26" s="7">
-        <v>25</v>
+        <v>1454</v>
       </c>
       <c r="N26" s="7">
-        <v>27029</v>
+        <v>1579610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,10 +4795,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>22</v>
+        <v>717</v>
       </c>
       <c r="D27" s="7">
-        <v>24013</v>
+        <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -5161,10 +4810,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>23</v>
+        <v>757</v>
       </c>
       <c r="I27" s="7">
-        <v>26357</v>
+        <v>823853</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -5176,10 +4825,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>45</v>
+        <v>1474</v>
       </c>
       <c r="N27" s="7">
-        <v>50370</v>
+        <v>1602951</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5205,13 +4854,13 @@
         <v>98315</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -5220,13 +4869,13 @@
         <v>98331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="M28" s="7">
         <v>184</v>
@@ -5235,13 +4884,13 @@
         <v>196646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,49 +4899,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>182</v>
+        <v>3115</v>
       </c>
       <c r="D29" s="7">
-        <v>189598</v>
+        <v>3328464</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="H29" s="7">
-        <v>151</v>
+        <v>3208</v>
       </c>
       <c r="I29" s="7">
-        <v>159141</v>
+        <v>3459978</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
-        <v>333</v>
+        <v>6323</v>
       </c>
       <c r="N29" s="7">
-        <v>348739</v>
+        <v>6788442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>276</v>
+        <v>3209</v>
       </c>
       <c r="D30" s="7">
-        <v>287913</v>
+        <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5316,10 +4965,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>241</v>
+        <v>3298</v>
       </c>
       <c r="I30" s="7">
-        <v>257472</v>
+        <v>3558309</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5331,10 +4980,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>517</v>
+        <v>6507</v>
       </c>
       <c r="N30" s="7">
-        <v>545385</v>
+        <v>6985088</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5348,7 +4997,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5372,7 +5021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1C3A9-B23C-4133-BA98-DB3A56274577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837949A2-E3D2-4A95-8E71-7335B7711916}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5389,7 +5038,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,16 +5142,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>6147</v>
+        <v>6146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5511,13 +5160,13 @@
         <v>9108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5526,13 +5175,13 @@
         <v>15254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,49 +5190,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="D5" s="7">
-        <v>13059</v>
+        <v>287615</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="I5" s="7">
-        <v>21080</v>
+        <v>279595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>529</v>
       </c>
       <c r="N5" s="7">
-        <v>34140</v>
+        <v>567210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,10 +5241,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D6" s="7">
-        <v>19206</v>
+        <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5607,10 +5256,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="I6" s="7">
-        <v>30188</v>
+        <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5622,10 +5271,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>543</v>
       </c>
       <c r="N6" s="7">
-        <v>49394</v>
+        <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5648,16 +5297,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>6221</v>
+        <v>6222</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5666,13 +5315,13 @@
         <v>4350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5681,13 +5330,13 @@
         <v>10572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,49 +5345,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>469</v>
       </c>
       <c r="D8" s="7">
-        <v>13194</v>
+        <v>496353</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="I8" s="7">
-        <v>11528</v>
+        <v>518734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>949</v>
       </c>
       <c r="N8" s="7">
-        <v>24721</v>
+        <v>1015087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,10 +5396,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>475</v>
       </c>
       <c r="D9" s="7">
-        <v>19415</v>
+        <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5762,10 +5411,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>484</v>
       </c>
       <c r="I9" s="7">
-        <v>15878</v>
+        <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5777,10 +5426,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>32</v>
+        <v>959</v>
       </c>
       <c r="N9" s="7">
-        <v>35293</v>
+        <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5806,13 +5455,13 @@
         <v>12544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5821,13 +5470,13 @@
         <v>5851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5836,13 +5485,13 @@
         <v>18395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,49 +5500,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>10687</v>
+        <v>306021</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="I11" s="7">
-        <v>8030</v>
+        <v>330458</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>648</v>
       </c>
       <c r="N11" s="7">
-        <v>18717</v>
+        <v>636479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,10 +5551,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="D12" s="7">
-        <v>23231</v>
+        <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5917,10 +5566,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="I12" s="7">
-        <v>13881</v>
+        <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5932,10 +5581,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
+        <v>667</v>
       </c>
       <c r="N12" s="7">
-        <v>37112</v>
+        <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5961,13 +5610,13 @@
         <v>16873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5976,13 +5625,13 @@
         <v>19048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5991,13 +5640,13 @@
         <v>35921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,49 +5655,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="D14" s="7">
-        <v>21519</v>
+        <v>353091</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="I14" s="7">
-        <v>17323</v>
+        <v>368235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
-        <v>35</v>
+        <v>681</v>
       </c>
       <c r="N14" s="7">
-        <v>38842</v>
+        <v>721326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,10 +5706,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="D15" s="7">
-        <v>38392</v>
+        <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6072,10 +5721,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>31</v>
+        <v>358</v>
       </c>
       <c r="I15" s="7">
-        <v>36371</v>
+        <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6087,10 +5736,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>66</v>
+        <v>712</v>
       </c>
       <c r="N15" s="7">
-        <v>74763</v>
+        <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6104,7 +5753,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6116,13 +5765,13 @@
         <v>5611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6131,13 +5780,13 @@
         <v>3346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6146,13 +5795,13 @@
         <v>8957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,49 +5810,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>4513</v>
+        <v>205610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I17" s="7">
-        <v>1187</v>
+        <v>215241</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>426</v>
       </c>
       <c r="N17" s="7">
-        <v>5700</v>
+        <v>420851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,10 +5861,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>10124</v>
+        <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6227,10 +5876,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>4533</v>
+        <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6242,10 +5891,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>15</v>
+        <v>435</v>
       </c>
       <c r="N18" s="7">
-        <v>14657</v>
+        <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6259,7 +5908,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6271,13 +5920,13 @@
         <v>15427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6286,13 +5935,13 @@
         <v>25371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -6301,13 +5950,13 @@
         <v>40798</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,49 +5965,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="D20" s="7">
-        <v>12797</v>
+        <v>247696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="I20" s="7">
-        <v>11088</v>
+        <v>247744</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
-        <v>23</v>
+        <v>484</v>
       </c>
       <c r="N20" s="7">
-        <v>23885</v>
+        <v>495440</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,10 +6016,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="D21" s="7">
-        <v>28224</v>
+        <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6382,10 +6031,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="I21" s="7">
-        <v>36459</v>
+        <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6397,10 +6046,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>61</v>
+        <v>522</v>
       </c>
       <c r="N21" s="7">
-        <v>64683</v>
+        <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6414,7 +6063,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6426,13 +6075,13 @@
         <v>8180</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>54</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -6441,13 +6090,13 @@
         <v>5757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6456,13 +6105,13 @@
         <v>13937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,49 +6120,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>573</v>
       </c>
       <c r="D23" s="7">
-        <v>18256</v>
+        <v>648378</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7">
-        <v>20</v>
+        <v>641</v>
       </c>
       <c r="I23" s="7">
-        <v>21650</v>
+        <v>685537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>312</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
-        <v>37</v>
+        <v>1214</v>
       </c>
       <c r="N23" s="7">
-        <v>39906</v>
+        <v>1333915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>442</v>
+        <v>315</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,10 +6171,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>24</v>
+        <v>580</v>
       </c>
       <c r="D24" s="7">
-        <v>26436</v>
+        <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6537,10 +6186,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>646</v>
       </c>
       <c r="I24" s="7">
-        <v>27407</v>
+        <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6552,10 +6201,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>49</v>
+        <v>1226</v>
       </c>
       <c r="N24" s="7">
-        <v>53843</v>
+        <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6581,28 +6230,28 @@
         <v>18108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>14679</v>
+        <v>14678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -6611,13 +6260,13 @@
         <v>32786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,49 +6275,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>15</v>
+        <v>732</v>
       </c>
       <c r="D26" s="7">
-        <v>16498</v>
+        <v>760475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
-        <v>12</v>
+        <v>742</v>
       </c>
       <c r="I26" s="7">
-        <v>12057</v>
+        <v>811489</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
-        <v>27</v>
+        <v>1474</v>
       </c>
       <c r="N26" s="7">
-        <v>28556</v>
+        <v>1571964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,10 +6326,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>33</v>
+        <v>750</v>
       </c>
       <c r="D27" s="7">
-        <v>34606</v>
+        <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -6692,10 +6341,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>25</v>
+        <v>755</v>
       </c>
       <c r="I27" s="7">
-        <v>26736</v>
+        <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6707,10 +6356,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>58</v>
+        <v>1505</v>
       </c>
       <c r="N27" s="7">
-        <v>61342</v>
+        <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -6736,28 +6385,28 @@
         <v>89111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
       </c>
       <c r="I28" s="7">
-        <v>87509</v>
+        <v>87510</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>396</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -6766,13 +6415,13 @@
         <v>176621</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,49 +6430,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>106</v>
+        <v>3144</v>
       </c>
       <c r="D29" s="7">
-        <v>110523</v>
+        <v>3305239</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
-        <v>95</v>
+        <v>3261</v>
       </c>
       <c r="I29" s="7">
-        <v>103944</v>
+        <v>3457032</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="M29" s="7">
-        <v>201</v>
+        <v>6405</v>
       </c>
       <c r="N29" s="7">
-        <v>214466</v>
+        <v>6762271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,10 +6481,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>193</v>
+        <v>3231</v>
       </c>
       <c r="D30" s="7">
-        <v>199634</v>
+        <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6847,10 +6496,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>172</v>
+        <v>3338</v>
       </c>
       <c r="I30" s="7">
-        <v>191453</v>
+        <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6862,10 +6511,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>365</v>
+        <v>6569</v>
       </c>
       <c r="N30" s="7">
-        <v>391087</v>
+        <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6879,7 +6528,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6903,7 +6552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE719D9-B91A-4A0A-BE70-C1C8C4AC57DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35B54FE-21C2-41C5-817A-A5885D61C87B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6920,7 +6569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7027,13 +6676,13 @@
         <v>7171</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -7042,13 +6691,13 @@
         <v>12017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>409</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -7057,13 +6706,13 @@
         <v>19188</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,49 +6721,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="D5" s="7">
-        <v>16276</v>
+        <v>253127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>512</v>
       </c>
       <c r="I5" s="7">
-        <v>16044</v>
+        <v>259386</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>416</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>486</v>
+        <v>418</v>
       </c>
       <c r="M5" s="7">
-        <v>51</v>
+        <v>832</v>
       </c>
       <c r="N5" s="7">
-        <v>32320</v>
+        <v>512512</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>488</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,10 +6772,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>23447</v>
+        <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7138,10 +6787,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>59</v>
+        <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>28061</v>
+        <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7153,10 +6802,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>88</v>
+        <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>51508</v>
+        <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7182,13 +6831,13 @@
         <v>11727</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -7197,13 +6846,13 @@
         <v>17835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -7212,13 +6861,13 @@
         <v>29563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>423</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,49 +6876,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="D8" s="7">
-        <v>12906</v>
+        <v>507570</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>693</v>
       </c>
       <c r="I8" s="7">
-        <v>18611</v>
+        <v>536731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>426</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>35</v>
+        <v>1067</v>
       </c>
       <c r="N8" s="7">
-        <v>31516</v>
+        <v>1044301</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>427</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,10 +6927,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>24633</v>
+        <v>519297</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7293,10 +6942,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>48</v>
+        <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>36446</v>
+        <v>554566</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7308,10 +6957,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>61079</v>
+        <v>1073864</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7337,13 +6986,13 @@
         <v>5943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>423</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>429</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -7352,13 +7001,13 @@
         <v>9917</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7367,13 +7016,13 @@
         <v>15860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,49 +7031,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="D11" s="7">
-        <v>15889</v>
+        <v>316297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>428</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>27</v>
+        <v>520</v>
       </c>
       <c r="I11" s="7">
-        <v>19085</v>
+        <v>363367</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>434</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>435</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>872</v>
       </c>
       <c r="N11" s="7">
-        <v>34974</v>
+        <v>679664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,10 +7082,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>21832</v>
+        <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7448,10 +7097,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>43</v>
+        <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>29002</v>
+        <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7463,10 +7112,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>71</v>
+        <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>50834</v>
+        <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7489,16 +7138,16 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>7687</v>
+        <v>7688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>437</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7507,13 +7156,13 @@
         <v>7492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7522,13 +7171,13 @@
         <v>15180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,49 +7186,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="D14" s="7">
-        <v>17106</v>
+        <v>314552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
-        <v>17</v>
+        <v>591</v>
       </c>
       <c r="I14" s="7">
-        <v>12550</v>
+        <v>421064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>878</v>
       </c>
       <c r="N14" s="7">
-        <v>29656</v>
+        <v>735616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,10 +7237,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>24793</v>
+        <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7603,10 +7252,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>25</v>
+        <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>20042</v>
+        <v>428556</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7618,10 +7267,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>44836</v>
+        <v>750796</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7635,7 +7284,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7647,13 +7296,13 @@
         <v>2431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7662,13 +7311,13 @@
         <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>451</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7677,13 +7326,13 @@
         <v>3085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>547</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>548</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,49 +7341,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>5615</v>
+        <v>194317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>231249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>767</v>
       </c>
       <c r="N17" s="7">
-        <v>5615</v>
+        <v>425566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>555</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>556</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>557</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,10 +7392,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>8046</v>
+        <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7758,10 +7407,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>654</v>
+        <v>231903</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7773,10 +7422,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>8700</v>
+        <v>428651</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7790,7 +7439,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7802,13 +7451,13 @@
         <v>10008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>558</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>559</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>560</v>
+        <v>461</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -7817,13 +7466,13 @@
         <v>14429</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>561</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>562</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>563</v>
+        <v>462</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -7832,13 +7481,13 @@
         <v>24437</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>564</v>
+        <v>463</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>565</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>566</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,49 +7496,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>23</v>
+        <v>354</v>
       </c>
       <c r="D20" s="7">
-        <v>16919</v>
+        <v>267215</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>567</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>568</v>
+        <v>465</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
-        <v>30</v>
+        <v>427</v>
       </c>
       <c r="I20" s="7">
-        <v>14599</v>
+        <v>261193</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>570</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>571</v>
+        <v>466</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
-        <v>53</v>
+        <v>781</v>
       </c>
       <c r="N20" s="7">
-        <v>31517</v>
+        <v>528408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>573</v>
+        <v>467</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>574</v>
+        <v>468</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>575</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,10 +7547,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>26927</v>
+        <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7913,10 +7562,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>63</v>
+        <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>29028</v>
+        <v>275622</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7928,10 +7577,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>103</v>
+        <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>55954</v>
+        <v>552845</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7945,7 +7594,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7957,13 +7606,13 @@
         <v>13799</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>576</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>577</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>578</v>
+        <v>470</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -7972,28 +7621,28 @@
         <v>21553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>579</v>
+        <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>580</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>581</v>
+        <v>472</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
       </c>
       <c r="N22" s="7">
-        <v>35351</v>
+        <v>35352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>582</v>
+        <v>394</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>583</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>584</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,49 +7651,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>30</v>
+        <v>585</v>
       </c>
       <c r="D23" s="7">
-        <v>30593</v>
+        <v>613955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>585</v>
+        <v>235</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>586</v>
+        <v>475</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>587</v>
+        <v>476</v>
       </c>
       <c r="H23" s="7">
-        <v>45</v>
+        <v>929</v>
       </c>
       <c r="I23" s="7">
-        <v>33034</v>
+        <v>782650</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>589</v>
+        <v>478</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>590</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
-        <v>75</v>
+        <v>1514</v>
       </c>
       <c r="N23" s="7">
-        <v>63627</v>
+        <v>1396605</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>591</v>
+        <v>400</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>592</v>
+        <v>479</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>593</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,10 +7702,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>44</v>
+        <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>44392</v>
+        <v>627754</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8068,10 +7717,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>76</v>
+        <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>54587</v>
+        <v>804203</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8083,10 +7732,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>120</v>
+        <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>98978</v>
+        <v>1431957</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8109,16 +7758,16 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>18131</v>
+        <v>18130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>594</v>
+        <v>481</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>595</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>596</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -8127,13 +7776,13 @@
         <v>16048</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>597</v>
+        <v>484</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>598</v>
+        <v>485</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>409</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -8142,13 +7791,13 @@
         <v>34178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>486</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>600</v>
+        <v>487</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>601</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,49 +7806,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>749</v>
       </c>
       <c r="D26" s="7">
-        <v>12761</v>
+        <v>841298</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>489</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>490</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>491</v>
       </c>
       <c r="H26" s="7">
-        <v>25</v>
+        <v>1043</v>
       </c>
       <c r="I26" s="7">
-        <v>18409</v>
+        <v>852386</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>492</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>418</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>606</v>
+        <v>493</v>
       </c>
       <c r="M26" s="7">
-        <v>37</v>
+        <v>1792</v>
       </c>
       <c r="N26" s="7">
-        <v>31171</v>
+        <v>1693684</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>607</v>
+        <v>494</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>608</v>
+        <v>495</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>609</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,10 +7857,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>25</v>
+        <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>30892</v>
+        <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8223,10 +7872,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>44</v>
+        <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>34457</v>
+        <v>868434</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8238,10 +7887,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>69</v>
+        <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>65349</v>
+        <v>1727862</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8267,13 +7916,13 @@
         <v>76897</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>610</v>
+        <v>229</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>611</v>
+        <v>497</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>276</v>
+        <v>498</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -8282,13 +7931,13 @@
         <v>99945</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>499</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>421</v>
       </c>
       <c r="M28" s="7">
         <v>237</v>
@@ -8297,13 +7946,13 @@
         <v>176842</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>500</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>501</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,49 +7961,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>133</v>
+        <v>3297</v>
       </c>
       <c r="D29" s="7">
-        <v>128065</v>
+        <v>3308331</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>284</v>
+        <v>503</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>504</v>
       </c>
       <c r="H29" s="7">
-        <v>201</v>
+        <v>5206</v>
       </c>
       <c r="I29" s="7">
-        <v>132332</v>
+        <v>3708027</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>425</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>622</v>
+        <v>505</v>
       </c>
       <c r="M29" s="7">
-        <v>334</v>
+        <v>8503</v>
       </c>
       <c r="N29" s="7">
-        <v>260397</v>
+        <v>7016358</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>506</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>624</v>
+        <v>507</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>625</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,10 +8012,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>212</v>
+        <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>204962</v>
+        <v>3385228</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8378,10 +8027,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>359</v>
+        <v>5364</v>
       </c>
       <c r="I30" s="7">
-        <v>232277</v>
+        <v>3807972</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8393,10 +8042,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>571</v>
+        <v>8740</v>
       </c>
       <c r="N30" s="7">
-        <v>437239</v>
+        <v>7193200</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8410,7 +8059,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3D73A7-DDC9-41A1-B36E-7C8037C02AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21512D4C-61C5-4B1C-AFCA-70B185A1E3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9229EB6-95B3-45F1-AD0A-47E63F71B161}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4CC2E91E-A34E-4490-8B6E-883F55F82BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="506">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -563,7 +563,58 @@
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -668,348 +719,351 @@
     <t>96,53%</t>
   </si>
   <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
     <t>93,6%</t>
   </si>
   <si>
@@ -1022,9 +1076,6 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
     <t>4,56%</t>
   </si>
   <si>
@@ -1145,9 +1196,6 @@
     <t>94,46%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
     <t>0,28%</t>
   </si>
   <si>
@@ -1160,9 +1208,6 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
@@ -1256,316 +1301,262 @@
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>97,97%</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97105E73-14B0-4766-A08E-8703E52920B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC2CEC9-A361-44AA-BE5D-867F874E88C3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3389,7 +3380,7 @@
         <v>3095</v>
       </c>
       <c r="D29" s="7">
-        <v>3153467</v>
+        <v>3153466</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>101</v>
@@ -3404,7 +3395,7 @@
         <v>3207</v>
       </c>
       <c r="I29" s="7">
-        <v>3285392</v>
+        <v>3285391</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>137</v>
@@ -3419,7 +3410,7 @@
         <v>6302</v>
       </c>
       <c r="N29" s="7">
-        <v>6438857</v>
+        <v>6438858</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>81</v>
@@ -3440,7 +3431,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3455,7 +3446,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3470,7 +3461,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3508,7 +3499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F248A2-EAB5-4402-BBC1-30432F1A89AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EA6038-FE9D-4D96-AB16-75D6FFD3AD94}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3626,43 +3617,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12181</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7036</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>19217</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,43 +3668,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>269</v>
+      </c>
+      <c r="D5" s="7">
+        <v>282557</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I5" s="7">
+        <v>280209</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>519</v>
+      </c>
+      <c r="N5" s="7">
+        <v>562766</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,43 +3719,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3778,13 @@
         <v>10875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3784,13 +3793,13 @@
         <v>7349</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3799,10 +3808,10 @@
         <v>18225</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -3820,13 +3829,13 @@
         <v>494652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>473</v>
@@ -3835,13 +3844,13 @@
         <v>516416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>935</v>
@@ -3850,13 +3859,13 @@
         <v>1011067</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3933,13 @@
         <v>15302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3939,13 +3948,13 @@
         <v>16928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -3954,13 +3963,13 @@
         <v>32229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3984,13 @@
         <v>308744</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -3990,13 +3999,13 @@
         <v>324092</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>605</v>
@@ -4005,13 +4014,13 @@
         <v>632837</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,49 +4082,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>26318</v>
+        <v>14137</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>14126</v>
+        <v>7090</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>40444</v>
+        <v>21227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,49 +4133,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>601</v>
+        <v>332</v>
       </c>
       <c r="D14" s="7">
-        <v>642402</v>
+        <v>359845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>614</v>
+        <v>364</v>
       </c>
       <c r="I14" s="7">
-        <v>662070</v>
+        <v>381861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
-        <v>1215</v>
+        <v>696</v>
       </c>
       <c r="N14" s="7">
-        <v>1304472</v>
+        <v>741706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4190,10 +4199,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4205,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4234,10 +4243,10 @@
         <v>7141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>113</v>
@@ -4249,13 +4258,13 @@
         <v>9252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -4264,13 +4273,13 @@
         <v>16393</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4294,13 @@
         <v>205477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>121</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -4300,13 +4309,13 @@
         <v>210339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>392</v>
@@ -4315,13 +4324,13 @@
         <v>415816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4398,13 @@
         <v>6842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -4404,13 +4413,13 @@
         <v>17187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -4419,13 +4428,13 @@
         <v>24029</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4449,13 @@
         <v>267139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -4455,13 +4464,13 @@
         <v>262844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -4470,13 +4479,13 @@
         <v>529983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,7 +4556,7 @@
         <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>78</v>
@@ -4559,13 +4568,13 @@
         <v>19203</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4574,13 +4583,13 @@
         <v>41985</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4610,7 @@
         <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>618</v>
@@ -4610,13 +4619,13 @@
         <v>674650</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1214</v>
@@ -4625,10 +4634,10 @@
         <v>1314656</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>169</v>
@@ -4699,13 +4708,13 @@
         <v>9054</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -4714,10 +4723,10 @@
         <v>14287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>164</v>
@@ -4732,10 +4741,10 @@
         <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4759,13 @@
         <v>770044</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>745</v>
@@ -4765,13 +4774,13 @@
         <v>809566</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1454</v>
@@ -4783,10 +4792,10 @@
         <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4863,13 @@
         <v>98315</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -4869,13 +4878,13 @@
         <v>98331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>184</v>
@@ -4884,13 +4893,13 @@
         <v>196646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4914,13 @@
         <v>3328464</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="H29" s="7">
         <v>3208</v>
@@ -4920,10 +4929,10 @@
         <v>3459978</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>156</v>
@@ -4935,13 +4944,13 @@
         <v>6788442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,7 +5030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837949A2-E3D2-4A95-8E71-7335B7711916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8128C6-98D4-46E2-9EC6-C3F8D8D8147C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5038,7 +5047,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5145,13 +5154,13 @@
         <v>6146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5160,13 +5169,13 @@
         <v>9108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5175,13 +5184,13 @@
         <v>15254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,10 +5205,10 @@
         <v>287615</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>46</v>
@@ -5211,10 +5220,10 @@
         <v>279595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>100</v>
@@ -5226,13 +5235,13 @@
         <v>567210</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5309,13 @@
         <v>6222</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5315,13 +5324,13 @@
         <v>4350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5330,13 +5339,13 @@
         <v>10572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5360,13 @@
         <v>496353</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -5366,13 +5375,13 @@
         <v>518734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>949</v>
@@ -5381,13 +5390,13 @@
         <v>1015087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5464,13 @@
         <v>12544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5470,13 +5479,13 @@
         <v>5851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5485,13 +5494,13 @@
         <v>18395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,10 +5515,10 @@
         <v>306021</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>68</v>
@@ -5521,13 +5530,13 @@
         <v>330458</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>648</v>
@@ -5536,13 +5545,13 @@
         <v>636479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5619,13 @@
         <v>16873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5625,13 +5634,13 @@
         <v>19048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5640,13 +5649,13 @@
         <v>35921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,10 +5670,10 @@
         <v>353091</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>48</v>
@@ -5676,13 +5685,13 @@
         <v>368235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>681</v>
@@ -5691,13 +5700,13 @@
         <v>721326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,10 +5777,10 @@
         <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5780,13 +5789,13 @@
         <v>3346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -5795,13 +5804,13 @@
         <v>8957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,10 +5828,10 @@
         <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>220</v>
@@ -5831,13 +5840,13 @@
         <v>215241</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -5846,13 +5855,13 @@
         <v>420851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,10 +5932,10 @@
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5935,13 +5944,13 @@
         <v>25371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -5950,13 +5959,13 @@
         <v>40798</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,10 +5983,10 @@
         <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -5986,13 +5995,13 @@
         <v>247744</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>484</v>
@@ -6001,13 +6010,13 @@
         <v>495440</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,10 +6087,10 @@
         <v>54</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>368</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -6090,13 +6099,13 @@
         <v>5757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6105,13 +6114,13 @@
         <v>13937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,10 +6138,10 @@
         <v>63</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="H23" s="7">
         <v>641</v>
@@ -6141,13 +6150,13 @@
         <v>685537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="M23" s="7">
         <v>1214</v>
@@ -6156,13 +6165,13 @@
         <v>1333915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6239,13 @@
         <v>18108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6248,10 +6257,10 @@
         <v>35</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -6260,10 +6269,10 @@
         <v>32786</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>130</v>
@@ -6281,13 +6290,13 @@
         <v>760475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H26" s="7">
         <v>742</v>
@@ -6299,10 +6308,10 @@
         <v>44</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="M26" s="7">
         <v>1474</v>
@@ -6311,13 +6320,13 @@
         <v>1571964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6394,13 @@
         <v>89111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -6400,13 +6409,13 @@
         <v>87510</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -6418,10 +6427,10 @@
         <v>77</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6445,13 @@
         <v>3305239</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>3261</v>
@@ -6451,13 +6460,13 @@
         <v>3457032</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="M29" s="7">
         <v>6405</v>
@@ -6469,10 +6478,10 @@
         <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35B54FE-21C2-41C5-817A-A5885D61C87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ADC4C8-84A4-4716-A2B9-BC194239CDAB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6569,7 +6578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6673,46 +6682,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>7171</v>
+        <v>7912</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>12017</v>
+        <v>12374</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>19188</v>
+        <v>20287</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>411</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,46 +6733,46 @@
         <v>320</v>
       </c>
       <c r="D5" s="7">
-        <v>253127</v>
+        <v>303531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>512</v>
       </c>
       <c r="I5" s="7">
-        <v>259386</v>
+        <v>277261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>832</v>
       </c>
       <c r="N5" s="7">
-        <v>512512</v>
+        <v>580790</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>419</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,7 +6784,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6790,7 +6799,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6805,7 +6814,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6828,46 +6837,46 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>11727</v>
+        <v>11798</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>434</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>17835</v>
+        <v>16114</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>29563</v>
+        <v>27912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,46 +6888,46 @@
         <v>374</v>
       </c>
       <c r="D8" s="7">
-        <v>507570</v>
+        <v>506592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>438</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>693</v>
       </c>
       <c r="I8" s="7">
-        <v>536731</v>
+        <v>498855</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>1067</v>
       </c>
       <c r="N8" s="7">
-        <v>1044301</v>
+        <v>1005447</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,7 +6939,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6945,7 +6954,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6960,7 +6969,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6983,46 +6992,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>5943</v>
+        <v>5767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>423</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>429</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>9917</v>
+        <v>9048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>443</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>15860</v>
+        <v>14814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>445</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,46 +7043,46 @@
         <v>352</v>
       </c>
       <c r="D11" s="7">
-        <v>316297</v>
+        <v>310283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>433</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>446</v>
       </c>
       <c r="H11" s="7">
         <v>520</v>
       </c>
       <c r="I11" s="7">
-        <v>363367</v>
+        <v>340080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>872</v>
       </c>
       <c r="N11" s="7">
-        <v>679664</v>
+        <v>650364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>449</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>391</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,7 +7094,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7100,7 +7109,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7115,7 +7124,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7138,46 +7147,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>7688</v>
+        <v>7240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>7492</v>
+        <v>6773</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>452</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>15180</v>
+        <v>14013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,46 +7198,46 @@
         <v>287</v>
       </c>
       <c r="D14" s="7">
-        <v>314552</v>
+        <v>305317</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
       </c>
       <c r="I14" s="7">
-        <v>421064</v>
+        <v>468945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>878</v>
       </c>
       <c r="N14" s="7">
-        <v>735616</v>
+        <v>774261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,7 +7249,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7255,7 +7264,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7270,7 +7279,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7293,46 +7302,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2431</v>
+        <v>2197</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>654</v>
+        <v>540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3085</v>
+        <v>2737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,46 +7353,46 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>194317</v>
+        <v>176545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>464</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>455</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>491</v>
       </c>
       <c r="I17" s="7">
-        <v>231249</v>
+        <v>208116</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
       </c>
       <c r="N17" s="7">
-        <v>425566</v>
+        <v>384661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,7 +7404,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7410,7 +7419,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7425,7 +7434,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7448,46 +7457,46 @@
         <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>10008</v>
+        <v>9652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>14429</v>
+        <v>13481</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
       </c>
       <c r="N19" s="7">
-        <v>24437</v>
+        <v>23133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,46 +7508,46 @@
         <v>354</v>
       </c>
       <c r="D20" s="7">
-        <v>267215</v>
+        <v>259984</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>427</v>
       </c>
       <c r="I20" s="7">
-        <v>261193</v>
+        <v>243575</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>781</v>
       </c>
       <c r="N20" s="7">
-        <v>528408</v>
+        <v>503559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,7 +7559,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7565,7 +7574,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7580,7 +7589,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7603,46 +7612,46 @@
         <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>13799</v>
+        <v>13114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>470</v>
+        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>21553</v>
+        <v>19933</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
       </c>
       <c r="N22" s="7">
-        <v>35352</v>
+        <v>33047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,46 +7663,46 @@
         <v>585</v>
       </c>
       <c r="D23" s="7">
-        <v>613955</v>
+        <v>611165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="H23" s="7">
         <v>929</v>
       </c>
       <c r="I23" s="7">
-        <v>782650</v>
+        <v>829332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>478</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>1514</v>
       </c>
       <c r="N23" s="7">
-        <v>1396605</v>
+        <v>1440497</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>400</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>479</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,7 +7714,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7720,7 +7729,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7735,7 +7744,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7758,46 +7767,46 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>18130</v>
+        <v>15250</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
       </c>
       <c r="I25" s="7">
-        <v>16048</v>
+        <v>13223</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>409</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
       </c>
       <c r="N25" s="7">
-        <v>34178</v>
+        <v>28473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>486</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,46 +7818,46 @@
         <v>749</v>
       </c>
       <c r="D26" s="7">
-        <v>841298</v>
+        <v>913470</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>491</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>1043</v>
       </c>
       <c r="I26" s="7">
-        <v>852386</v>
+        <v>704508</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>1792</v>
       </c>
       <c r="N26" s="7">
-        <v>1693684</v>
+        <v>1617979</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,7 +7869,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7875,7 +7884,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7890,7 +7899,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7913,46 +7922,46 @@
         <v>79</v>
       </c>
       <c r="D28" s="7">
-        <v>76897</v>
+        <v>72930</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>229</v>
+        <v>502</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>497</v>
+        <v>311</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>498</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
       </c>
       <c r="I28" s="7">
-        <v>99945</v>
+        <v>91486</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>421</v>
+        <v>17</v>
       </c>
       <c r="M28" s="7">
         <v>237</v>
       </c>
       <c r="N28" s="7">
-        <v>176842</v>
+        <v>164416</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>501</v>
+        <v>386</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>502</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,28 +7973,28 @@
         <v>3297</v>
       </c>
       <c r="D29" s="7">
-        <v>3308331</v>
+        <v>3386887</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>238</v>
+        <v>504</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>504</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>5206</v>
       </c>
       <c r="I29" s="7">
-        <v>3708027</v>
+        <v>3570671</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>425</v>
+        <v>27</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>505</v>
@@ -7994,16 +8003,16 @@
         <v>8503</v>
       </c>
       <c r="N29" s="7">
-        <v>7016358</v>
+        <v>6957558</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>506</v>
+        <v>433</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>507</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>508</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8015,7 +8024,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8030,7 +8039,7 @@
         <v>5364</v>
       </c>
       <c r="I30" s="7">
-        <v>3807972</v>
+        <v>3662157</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8045,7 +8054,7 @@
         <v>8740</v>
       </c>
       <c r="N30" s="7">
-        <v>7193200</v>
+        <v>7121974</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
